--- a/goals acquisition.xlsx
+++ b/goals acquisition.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +35,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -65,6 +66,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -160,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -172,6 +185,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AD14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9:V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -637,4 +652,130 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:AA8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE11" sqref="AE11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+    </row>
+    <row r="4" spans="2:27" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3"/>
+      <c r="C4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="3"/>
+    </row>
+    <row r="5" spans="2:27" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="O5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="AA5" s="1"/>
+    </row>
+    <row r="6" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="D6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="3"/>
+      <c r="S6" s="1"/>
+      <c r="U6" s="5"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="3"/>
+    </row>
+    <row r="7" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+    </row>
+    <row r="8" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>